--- a/data/trans_dic/P3A$pareja-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P3A$pareja-Edad-trans_dic.xlsx
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.06355678148476958</v>
+        <v>0.06355678148476959</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.09008400067373715</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.07604071206921438</v>
+        <v>0.07604071206921437</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.03248739892055338</v>
+        <v>0.03207944192613345</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.05566200117543742</v>
+        <v>0.05822327597618995</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.05290897712449095</v>
+        <v>0.05251427947145534</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1154608021549627</v>
+        <v>0.1143322902333729</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1369394087246127</v>
+        <v>0.1288912356707047</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.110311645857212</v>
+        <v>0.1090634178826263</v>
       </c>
     </row>
     <row r="7">
@@ -622,10 +622,10 @@
         <v>0.3722858812878947</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.2535332970526787</v>
+        <v>0.2535332970526788</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.3114023219119506</v>
+        <v>0.3114023219119507</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3158772782286521</v>
+        <v>0.3179983724183881</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2140547903106841</v>
+        <v>0.213867559634218</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2773221815727545</v>
+        <v>0.278339242753623</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.42836587489901</v>
+        <v>0.4298257912981472</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2959205671058657</v>
+        <v>0.2932533406001138</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3470615719017781</v>
+        <v>0.3491309424169287</v>
       </c>
     </row>
     <row r="10">
@@ -674,13 +674,13 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.6140333816960771</v>
+        <v>0.6140333816960772</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.3674273771590796</v>
+        <v>0.3674273771590797</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.4904968818250816</v>
+        <v>0.4904968818250815</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.5684377411224805</v>
+        <v>0.5732291639360974</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3384466263024029</v>
+        <v>0.3355407815359971</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4641590859802198</v>
+        <v>0.4612585073351438</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.6512507132948214</v>
+        <v>0.6550256523624399</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4035334030182023</v>
+        <v>0.4020029405655245</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.5188799178552417</v>
+        <v>0.5154625501296242</v>
       </c>
     </row>
     <row r="13">
@@ -735,7 +735,7 @@
         <v>0.299091775232023</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.4285915927916627</v>
+        <v>0.4285915927916628</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.5240149693631945</v>
+        <v>0.5289254803012471</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2729662006932214</v>
+        <v>0.2739014811722467</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.4059167271040913</v>
+        <v>0.4046019010440934</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.5995564377500011</v>
+        <v>0.6046954034428901</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3261033727119697</v>
+        <v>0.3264742996357634</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4532355248763336</v>
+        <v>0.4538287873440134</v>
       </c>
     </row>
     <row r="16">
@@ -790,7 +790,7 @@
         <v>0.2215864761836285</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.4106301039627236</v>
+        <v>0.4106301039627237</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.5608806054471723</v>
+        <v>0.5612853557519698</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1966371669934986</v>
+        <v>0.1958568252575335</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.385367972072321</v>
+        <v>0.3870495959252845</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.6365517261677591</v>
+        <v>0.6398944327585794</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2490340257945685</v>
+        <v>0.2451362880927921</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.4354565508532322</v>
+        <v>0.4363247238234163</v>
       </c>
     </row>
     <row r="19">
@@ -845,7 +845,7 @@
         <v>0.1374029994546517</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.3578218083272013</v>
+        <v>0.3578218083272015</v>
       </c>
     </row>
     <row r="20">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.5539338975225899</v>
+        <v>0.5561088346654386</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1146450957634295</v>
+        <v>0.1144957215786821</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.3320851576072177</v>
+        <v>0.3317285511522368</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.6347746785376959</v>
+        <v>0.6374249020584278</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1619491647507857</v>
+        <v>0.161098661510186</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.3845803603763154</v>
+        <v>0.385076655527148</v>
       </c>
     </row>
     <row r="22">
@@ -900,7 +900,7 @@
         <v>0.05838238711438407</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2293357689455495</v>
+        <v>0.2293357689455494</v>
       </c>
     </row>
     <row r="23">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.4367894911734632</v>
+        <v>0.4370553814597197</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.04382671861516195</v>
+        <v>0.04442294088620757</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2065145641238265</v>
+        <v>0.2060819787065285</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.530851527006623</v>
+        <v>0.5326018426464367</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.07619824395457336</v>
+        <v>0.07559119181251607</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2552743079784701</v>
+        <v>0.2530610990006166</v>
       </c>
     </row>
     <row r="25">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.4747378781784632</v>
+        <v>0.4743216722758248</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.2098479527136888</v>
+        <v>0.2117291406404459</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.3425145153727588</v>
+        <v>0.3423221061707669</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.5120166419398764</v>
+        <v>0.5114175633552323</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.2334815085995864</v>
+        <v>0.2349225061719885</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.3649303721448481</v>
+        <v>0.3653319287485291</v>
       </c>
     </row>
     <row r="28">
@@ -1134,13 +1134,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>13248</v>
+        <v>13082</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>20178</v>
+        <v>21107</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>40756</v>
+        <v>40452</v>
       </c>
     </row>
     <row r="7">
@@ -1151,13 +1151,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>47084</v>
+        <v>46624</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>49642</v>
+        <v>46725</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>84974</v>
+        <v>84012</v>
       </c>
     </row>
     <row r="8">
@@ -1206,13 +1206,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>150639</v>
+        <v>151650</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>107398</v>
+        <v>107304</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>271394</v>
+        <v>272389</v>
       </c>
     </row>
     <row r="11">
@@ -1223,13 +1223,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>204283</v>
+        <v>204980</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>148473</v>
+        <v>147135</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>339642</v>
+        <v>341668</v>
       </c>
     </row>
     <row r="12">
@@ -1278,13 +1278,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>352907</v>
+        <v>355882</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>210918</v>
+        <v>209107</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>577427</v>
+        <v>573819</v>
       </c>
     </row>
     <row r="15">
@@ -1295,13 +1295,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>404321</v>
+        <v>406664</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>251479</v>
+        <v>250525</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>645502</v>
+        <v>641250</v>
       </c>
     </row>
     <row r="16">
@@ -1350,13 +1350,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>367134</v>
+        <v>370574</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>200960</v>
+        <v>201649</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>583232</v>
+        <v>581343</v>
       </c>
     </row>
     <row r="19">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>420059</v>
+        <v>423660</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>240081</v>
+        <v>240354</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>651221</v>
+        <v>652073</v>
       </c>
     </row>
     <row r="20">
@@ -1422,13 +1422,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>341770</v>
+        <v>342017</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>119724</v>
+        <v>119248</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>469456</v>
+        <v>471505</v>
       </c>
     </row>
     <row r="23">
@@ -1439,13 +1439,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>387880</v>
+        <v>389917</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>151626</v>
+        <v>149252</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>530474</v>
+        <v>531532</v>
       </c>
     </row>
     <row r="24">
@@ -1494,13 +1494,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>224889</v>
+        <v>225772</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>50283</v>
+        <v>50218</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>280474</v>
+        <v>280173</v>
       </c>
     </row>
     <row r="27">
@@ -1511,13 +1511,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>257710</v>
+        <v>258786</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>71031</v>
+        <v>70658</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>324810</v>
+        <v>325230</v>
       </c>
     </row>
     <row r="28">
@@ -1566,13 +1566,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>135491</v>
+        <v>135574</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>20362</v>
+        <v>20639</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>160009</v>
+        <v>159674</v>
       </c>
     </row>
     <row r="31">
@@ -1583,13 +1583,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>164669</v>
+        <v>165212</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>35402</v>
+        <v>35120</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>197788</v>
+        <v>196074</v>
       </c>
     </row>
     <row r="32">
@@ -1638,13 +1638,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>1676617</v>
+        <v>1675147</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>783931</v>
+        <v>790958</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>2489182</v>
+        <v>2487784</v>
       </c>
     </row>
     <row r="35">
@@ -1655,13 +1655,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>1808273</v>
+        <v>1806158</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>872219</v>
+        <v>877602</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>2652087</v>
+        <v>2655005</v>
       </c>
     </row>
     <row r="36">
